--- a/Código/Requisitos Inês_Gonçalo.xlsx
+++ b/Código/Requisitos Inês_Gonçalo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalofileno/Desktop/1ºProjeto SCRUM/scrumGonIne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalofileno/Desktop/1ºProjeto SCRUM/scrumGonIne/Código/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31FBD232-7686-CA47-8293-816DCD08FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FFAF0-ED3D-2245-9D65-B22969B64932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,6 +44,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Incluir campos para inserir informações relativas ao Login de um utilizador (</t>
     </r>
@@ -53,6 +54,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>username</t>
     </r>
@@ -61,6 +63,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> e </t>
     </r>
@@ -70,6 +73,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>password</t>
     </r>
@@ -78,6 +82,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), e um botão para efetuar o </t>
     </r>
@@ -87,6 +92,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>login</t>
     </r>
@@ -109,6 +115,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Submissão do forumlário de </t>
     </r>
@@ -118,6 +125,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>login</t>
     </r>
@@ -126,6 +134,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> através de botão em </t>
     </r>
@@ -135,6 +144,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Javascript</t>
     </r>
@@ -145,6 +155,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Adição da tarefa através de botão em </t>
     </r>
@@ -154,6 +165,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Javascript</t>
     </r>
@@ -164,6 +176,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Mover entre </t>
     </r>
@@ -173,6 +186,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>boards</t>
     </r>
@@ -181,6 +195,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> as tarefas (</t>
     </r>
@@ -190,6 +205,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>To do - Doing - Done</t>
     </r>
@@ -198,6 +214,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -217,6 +234,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Dados das tarefas guardados corretamente em </t>
     </r>
@@ -226,6 +244,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>local storage</t>
     </r>
@@ -236,6 +255,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Nome do utilizador guardado em</t>
     </r>
@@ -245,6 +265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> local storage</t>
     </r>
@@ -280,17 +301,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
